--- a/results/mp/logistic/corona/confidence/84/stop-words-desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-desired-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -73,88 +76,88 @@
     <t>free</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -523,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -584,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -634,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8527397260273972</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C4">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8378378378378378</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,16 +708,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6137566137566137</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5254237288135594</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.9242819843342036</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L8">
-        <v>354</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>354</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4418604651162791</v>
+        <v>0.4903100775193798</v>
       </c>
       <c r="C9">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="D9">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1946308724832215</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.9056603773584906</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,21 +979,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.2751677852348993</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>108</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.9014084507042254</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1002,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8984375</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1028,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.88125</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1054,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1080,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.88125</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1106,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1132,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1158,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.8536585365853658</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1184,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.8253968253968254</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1210,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1236,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.8</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1267,16 +1294,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1288,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.7714285714285715</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1314,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.7529411764705882</v>
+        <v>0.725</v>
       </c>
       <c r="L24">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1340,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.7288135593220338</v>
+        <v>0.72</v>
       </c>
       <c r="L25">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.7280334728033473</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L26">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M26">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1392,15 +1419,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.6966292134831461</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L27">
         <v>62</v>
@@ -1418,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="L28">
         <v>42</v>
       </c>
-      <c r="K28">
-        <v>0.676923076923077</v>
-      </c>
-      <c r="L28">
-        <v>44</v>
-      </c>
       <c r="M28">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1444,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.6595744680851063</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1475,42 +1502,42 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L30">
         <v>44</v>
       </c>
-      <c r="K30">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
+        <v>44</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>26</v>
-      </c>
-      <c r="M30">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>19</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1522,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5686274509803921</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1548,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.3717948717948718</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1574,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
